--- a/results/mp/logistic/corona/confidence/168/topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,13 +40,16 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
@@ -55,9 +58,6 @@
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -70,37 +70,46 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>good</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>confidence</t>
@@ -109,33 +118,36 @@
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
@@ -145,16 +157,16 @@
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
@@ -515,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +538,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -634,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7294520547945206</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5263157894736842</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4285714285714285</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8928571428571429</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3294573643410852</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C7">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>346</v>
+        <v>109</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8302872062663186</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2533333333333334</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>343</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8103448275862069</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2214765100671141</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8018867924528302</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L9">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1055555555555556</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -952,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7948717948717948</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -984,13 +996,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1002,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1010,13 +1022,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7890625</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1028,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1036,13 +1048,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7816901408450704</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1054,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1062,13 +1074,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7625</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L14">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1080,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1088,13 +1100,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1106,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1114,13 +1126,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1132,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1140,13 +1152,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7307692307692307</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1158,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1166,13 +1178,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1184,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1192,13 +1204,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1210,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1218,13 +1230,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1236,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1270,13 +1282,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6825396825396826</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1288,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1296,13 +1308,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6279069767441861</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1314,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1322,13 +1334,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6088235294117647</v>
+        <v>0.66</v>
       </c>
       <c r="L24">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1340,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>133</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1348,13 +1360,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1366,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1374,13 +1386,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5815899581589958</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L26">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="M26">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1392,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1400,13 +1412,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.574468085106383</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1418,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1426,13 +1438,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5627118644067797</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1444,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>129</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1452,13 +1464,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5538461538461539</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1470,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1478,13 +1490,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5285714285714286</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1496,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1504,13 +1516,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1522,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1530,13 +1542,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4719101123595505</v>
+        <v>0.5322033898305085</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1548,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1556,13 +1568,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.3287671232876712</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1574,7 +1586,111 @@
         <v>0</v>
       </c>
       <c r="Q33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="K35">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="L35">
+        <v>38</v>
+      </c>
+      <c r="M35">
+        <v>38</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="L36">
+        <v>22</v>
+      </c>
+      <c r="M36">
+        <v>22</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
